--- a/Teaching/2017-2018/Stat web page/results/Tabel_Statistica_Restanta_iunie_2018.xlsx
+++ b/Teaching/2017-2018/Stat web page/results/Tabel_Statistica_Restanta_iunie_2018.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="43" documentId="10_ncr:8100000_{000EB357-890D-4082-ACF8-F238E80FE10B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{7A4EE346-81CE-4CDB-99AF-E0D82086AC51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{940C7C64-8CB3-439F-981C-47D56E8F27BD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -461,16 +461,16 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.3984375" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -704,34 +704,34 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="3">
         <f t="shared" si="2"/>
-        <v>3.3042857142857143</v>
+        <v>4.3042857142857143</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="3"/>
-        <v>3.3542857142857145</v>
+        <v>4.6042857142857141</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -784,7 +784,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -837,7 +837,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -890,7 +890,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -944,7 +944,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -997,7 +997,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
